--- a/PLP/PLP Documents/ProjectDocuments/DesignDocuments/HLD/DB Design/Employee Details DB Design.xlsx
+++ b/PLP/PLP Documents/ProjectDocuments/DesignDocuments/HLD/DB Design/Employee Details DB Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP\PLP\PLP Documents\ProjectDocuments\DesignDocuments\HLD\DB Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mkumarh\Desktop\PLP Update\PLP Documents\ProjectDocuments\DesignDocuments\HLD\DB Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
